--- a/design/Config/Common/MenuIndex.xlsx
+++ b/design/Config/Common/MenuIndex.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\GamePF\gamepf_doc\Config\Common\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\zengfeng\GameWP\xyx_wp\doc\Config\Common\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{A03491FA-BB14-4E36-8276-A587B928F4B5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9371D630-1DAF-4282-80B8-30C4D9BA9688}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13230" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -264,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +274,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -551,13 +557,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,6 +627,23 @@
         <v>10</v>
       </c>
     </row>
+    <row r="4" spans="1:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6">
+        <v>2</v>
+      </c>
+      <c r="D4" s="5">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
